--- a/_lectures/cs494-spring24.xlsx
+++ b/_lectures/cs494-spring24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/papka/Work/HPC_Spring2024/Website/_lectures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F77D836-91D2-9440-916B-EAE588895159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EB41A9-9740-0642-B909-80F76E05E084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24440" yWindow="2040" windowWidth="35040" windowHeight="25320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -220,9 +220,6 @@
     <t>Graduate II</t>
   </si>
   <si>
-    <t>Final Exam Review</t>
-  </si>
-  <si>
     <t>--</t>
   </si>
   <si>
@@ -319,13 +316,16 @@
     <t>M 04/29</t>
   </si>
   <si>
-    <t>Final Exam (Real Date to be Determined)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Git and GitHub    </t>
   </si>
   <si>
     <t>C++ and Make</t>
+  </si>
+  <si>
+    <t>Review01</t>
+  </si>
+  <si>
+    <t>Exam01 (Date to be Determined)</t>
   </si>
 </sst>
 </file>
@@ -691,7 +691,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -735,13 +735,13 @@
         <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -755,13 +755,13 @@
         <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -775,13 +775,13 @@
         <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -795,13 +795,13 @@
         <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -815,13 +815,13 @@
         <v>42</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -835,13 +835,13 @@
         <v>43</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -855,13 +855,13 @@
         <v>44</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -875,13 +875,13 @@
         <v>45</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -895,13 +895,13 @@
         <v>46</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -915,13 +915,13 @@
         <v>47</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -935,13 +935,13 @@
         <v>48</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -955,13 +955,13 @@
         <v>49</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -972,14 +972,14 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -993,13 +993,13 @@
         <v>50</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1013,13 +1013,13 @@
         <v>51</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1027,19 +1027,19 @@
         <v>21</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1053,13 +1053,13 @@
         <v>53</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1073,13 +1073,13 @@
         <v>54</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1093,13 +1093,13 @@
         <v>55</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1107,19 +1107,19 @@
         <v>25</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1127,19 +1127,19 @@
         <v>26</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1147,19 +1147,19 @@
         <v>27</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1173,13 +1173,13 @@
         <v>59</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1193,13 +1193,13 @@
         <v>60</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1213,13 +1213,13 @@
         <v>61</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1233,13 +1233,13 @@
         <v>60</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1253,13 +1253,13 @@
         <v>62</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1273,13 +1273,13 @@
         <v>60</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1293,13 +1293,13 @@
         <v>63</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1307,19 +1307,19 @@
         <v>35</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1327,19 +1327,19 @@
         <v>36</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1350,34 +1350,34 @@
         <v>26</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
